--- a/Factures_Excel/1472 - Équipe Jacques Morin.xlsx
+++ b/Factures_Excel/1472 - Équipe Jacques Morin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\Facturation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96553F1A-F359-45C8-8574-9F98586FA89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90317E1D-4D2F-434B-ADE6-80BC1A926BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25-07-19" sheetId="16" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="21-03-23" sheetId="14" r:id="rId10"/>
     <sheet name="18-02-24" sheetId="15" r:id="rId11"/>
     <sheet name="Activités" sheetId="5" r:id="rId12"/>
+    <sheet name="2025-05-06 - 25-24928" sheetId="18" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="Liste_Activités" localSheetId="0">[1]Activités!$C$5:$C$45</definedName>
@@ -49,6 +50,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'16-12-19'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'18-02-24'!$A$1:$F$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'18-06-21'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-05-06 - 25-24928'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'21-03-23'!$A$1:$F$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'21-07-21'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'25-07-19'!$A$1:$F$89</definedName>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="101">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -355,20 +357,46 @@
   <si>
     <t>Le 25 JUILLET 2019</t>
   </si>
+  <si>
+    <t>Le 6 MAI 2025</t>
+  </si>
+  <si>
+    <t>Jacques Morin</t>
+  </si>
+  <si>
+    <t>9141-5489 Québec Inc.</t>
+  </si>
+  <si>
+    <t>4835 rue Ambroise-Lafortune</t>
+  </si>
+  <si>
+    <t>Boisbriand, Québec, J7H 0A4</t>
+  </si>
+  <si>
+    <t>25-24928</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test</t>
+  </si>
+  <si>
+    <t>Frais d'expert en taxes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;$&quot;_-;[Red]#,##0.00\ &quot;$&quot;\-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="169" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -516,8 +544,53 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF625850"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF625850"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF625850"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +612,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,13 +818,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -845,64 +926,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="7" fontId="19" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,12 +939,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -933,17 +951,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
@@ -961,12 +973,259 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers 2" xfId="5" xr:uid="{3E3831AB-4A54-4CD3-B641-51C90D1FFEAC}"/>
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{05AE08AC-AFEC-4B9B-A8E8-E482E13645AE}"/>
+    <cellStyle name="Pourcentage" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,6 +1470,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13313" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEDD6B7-26F6-B569-B4C8-7AB7F98752B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2152,12 +2477,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362BF929-B602-4F7E-AC64-AB3EEF005DD0}">
-  <sheetPr>
+  <sheetPr codeName="Feuil3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
@@ -2173,44 +2498,44 @@
   </cols>
   <sheetData>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="100"/>
-      <c r="E12" s="99"/>
+      <c r="B12" s="77"/>
+      <c r="E12" s="76"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="100"/>
-      <c r="E13" s="99"/>
+      <c r="B13" s="77"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="100"/>
-      <c r="E14" s="99"/>
+      <c r="B14" s="77"/>
+      <c r="E14" s="76"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="100"/>
-      <c r="E15" s="99"/>
+      <c r="B15" s="77"/>
+      <c r="E15" s="76"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="100"/>
-      <c r="E16" s="99"/>
+      <c r="B16" s="77"/>
+      <c r="E16" s="76"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="100"/>
-      <c r="E17" s="99"/>
+      <c r="B17" s="77"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="100"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="77"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="100"/>
-      <c r="E19" s="99"/>
+      <c r="B19" s="77"/>
+      <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="100"/>
-      <c r="E20" s="99"/>
+      <c r="B20" s="77"/>
+      <c r="E20" s="76"/>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
-      <c r="B21" s="82" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="61" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="47"/>
@@ -2219,24 +2544,24 @@
       <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
-      <c r="B24" s="82" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="61" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="47"/>
@@ -2245,8 +2570,8 @@
       <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
-      <c r="B25" s="82" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="61" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="47"/>
@@ -2255,8 +2580,8 @@
       <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="89"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="75" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="47"/>
@@ -2265,83 +2590,83 @@
       <c r="F26" s="47"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="90"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="47"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="95" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="72" t="s">
         <v>91</v>
       </c>
       <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="93"/>
-    </row>
-    <row r="30" spans="1:6" s="91" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="92" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="70"/>
+    </row>
+    <row r="30" spans="1:6" s="69" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="47"/>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="50"/>
       <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="47"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="50"/>
       <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="47"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="50"/>
       <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="47"/>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="50">
         <f>2.75*265</f>
         <v>728.75</v>
@@ -2350,233 +2675,233 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="47"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="50"/>
       <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="47"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
       <c r="E37" s="50"/>
       <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="47"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
       <c r="E38" s="50"/>
       <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="47"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="50"/>
       <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="47"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="50"/>
       <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="47"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="50"/>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="47"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="50"/>
       <c r="F42" s="47"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="47"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="50"/>
       <c r="F43" s="47"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="47"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="50"/>
       <c r="F44" s="47"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="47"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="50"/>
       <c r="F45" s="47"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="47"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="50"/>
       <c r="F46" s="47"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="47"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
       <c r="E47" s="50"/>
       <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="47"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
       <c r="E48" s="50"/>
       <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="47"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
       <c r="E49" s="50"/>
       <c r="F49" s="47"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="47"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
       <c r="E50" s="50"/>
       <c r="F50" s="47"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="47"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
       <c r="E51" s="50"/>
       <c r="F51" s="47"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="47"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
       <c r="E52" s="50"/>
       <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="47"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
       <c r="E53" s="50"/>
       <c r="F53" s="47"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="47"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
       <c r="E54" s="50"/>
       <c r="F54" s="47"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="47"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
       <c r="E55" s="50"/>
       <c r="F55" s="47"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="50"/>
       <c r="F56" s="47"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
       <c r="E57" s="50"/>
       <c r="F57" s="47"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="47"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
       <c r="E58" s="50"/>
       <c r="F58" s="47"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="47"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
       <c r="E59" s="50"/>
       <c r="F59" s="47"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="47"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
       <c r="E60" s="50"/>
       <c r="F60" s="47"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="47"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="50"/>
       <c r="F61" s="47"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="47"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
       <c r="E62" s="50"/>
       <c r="F62" s="47"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="47"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
       <c r="E63" s="50"/>
       <c r="F63" s="47"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="47"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
       <c r="E64" s="50"/>
       <c r="F64" s="47"/>
     </row>
@@ -2598,27 +2923,27 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="47"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
       <c r="E67" s="50"/>
       <c r="F67" s="47"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="47"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
       <c r="E68" s="50"/>
       <c r="F68" s="47"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="47"/>
-      <c r="B69" s="82" t="s">
+      <c r="B69" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
       <c r="E69" s="30">
         <f>SUM(E35:E67)</f>
         <v>728.75</v>
@@ -2627,11 +2952,11 @@
     </row>
     <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="47"/>
-      <c r="B70" s="86" t="s">
+      <c r="B70" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
       <c r="E70" s="31">
         <v>0</v>
       </c>
@@ -2639,11 +2964,11 @@
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="47"/>
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
       <c r="E71" s="31">
         <v>0</v>
       </c>
@@ -2651,11 +2976,11 @@
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="47"/>
-      <c r="B72" s="82" t="s">
+      <c r="B72" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="30">
         <f>SUM(E69:E71)</f>
         <v>728.75</v>
@@ -2664,13 +2989,13 @@
     </row>
     <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="47"/>
-      <c r="B73" s="81" t="s">
+      <c r="B73" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="85">
+      <c r="C73" s="64">
         <v>0.05</v>
       </c>
-      <c r="D73" s="81"/>
+      <c r="D73" s="60"/>
       <c r="E73" s="36">
         <f>ROUND(E72*C73,2)</f>
         <v>36.44</v>
@@ -2679,13 +3004,13 @@
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="47"/>
-      <c r="B74" s="81" t="s">
+      <c r="B74" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="84">
+      <c r="C74" s="63">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="D74" s="81"/>
+      <c r="D74" s="60"/>
       <c r="E74" s="44">
         <f>ROUND(E72*C74,2)</f>
         <v>72.69</v>
@@ -2694,19 +3019,19 @@
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="47"/>
-      <c r="B75" s="81"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="83"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="62"/>
       <c r="F75" s="47"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="82" t="s">
+      <c r="B76" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
       <c r="E76" s="34">
         <f>SUM(E72:E74)</f>
         <v>837.88000000000011</v>
@@ -2715,40 +3040,40 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="47"/>
-      <c r="B77" s="79"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="78"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="59"/>
       <c r="F77" s="47"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="47"/>
-      <c r="B78" s="80" t="s">
+      <c r="B78" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="78">
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="59">
         <v>0</v>
       </c>
       <c r="F78" s="47"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="47"/>
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="78"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="59"/>
       <c r="F79" s="47"/>
     </row>
     <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="47"/>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="75">
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="56">
         <f>E76-E78</f>
         <v>837.88000000000011</v>
       </c>
@@ -2772,31 +3097,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="47"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
       <c r="F83" s="47"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="73" t="s">
+      <c r="A84" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="72" t="s">
+      <c r="A85" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
+      <c r="B85" s="79"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="47"/>
@@ -2808,45 +3133,52 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="47"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
       <c r="F87" s="47"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
+      <c r="B88" s="87"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="69"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2863,24 +3195,17 @@
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2889,7 +3214,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2897,7 +3222,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69AA414-A443-4EAB-B340-02D8FB620538}">
-  <sheetPr>
+  <sheetPr codeName="Feuil11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F93"/>
@@ -3038,14 +3363,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -3066,27 +3391,27 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="29">
         <f>0.5*350</f>
         <v>175</v>
@@ -3095,27 +3420,27 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="29">
         <f>2.5*350</f>
         <v>875</v>
@@ -3124,217 +3449,217 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
@@ -3356,17 +3681,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
       <c r="E69" s="29"/>
       <c r="F69" s="22"/>
     </row>
@@ -3473,19 +3798,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
       <c r="E78" s="37"/>
       <c r="F78" s="22"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="60" t="s">
+      <c r="B79" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="98"/>
       <c r="E79" s="37">
         <v>0</v>
       </c>
@@ -3493,9 +3818,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
       <c r="E80" s="37"/>
       <c r="F80" s="22"/>
     </row>
@@ -3530,31 +3855,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
       <c r="F84" s="22"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="65" t="s">
+      <c r="A85" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="90"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="61" t="s">
+      <c r="A86" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
@@ -3566,26 +3891,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="97"/>
       <c r="F88" s="22"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="64" t="s">
+      <c r="A89" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="55"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="95"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3595,6 +3920,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B40:D40"/>
@@ -3611,35 +3965,6 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{B9F9133D-2484-4613-9D01-CDBE25B972C0}">
@@ -3648,7 +3973,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3656,7 +3981,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BD3A54-5416-4050-BBF2-78F740333344}">
-  <sheetPr>
+  <sheetPr codeName="Feuil12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F93"/>
@@ -3797,14 +4122,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -3825,27 +4150,27 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="29">
         <f>0.4*350</f>
         <v>140</v>
@@ -3854,241 +4179,241 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
@@ -4110,17 +4435,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
       <c r="E69" s="29"/>
       <c r="F69" s="22"/>
     </row>
@@ -4227,19 +4552,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
       <c r="E78" s="37"/>
       <c r="F78" s="22"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="60" t="s">
+      <c r="B79" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="98"/>
       <c r="E79" s="37">
         <v>0</v>
       </c>
@@ -4247,9 +4572,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
       <c r="E80" s="37"/>
       <c r="F80" s="22"/>
     </row>
@@ -4284,31 +4609,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
       <c r="F84" s="22"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="65" t="s">
+      <c r="A85" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="90"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="61" t="s">
+      <c r="A86" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
@@ -4320,26 +4645,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="97"/>
       <c r="F88" s="22"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="64" t="s">
+      <c r="A89" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="55"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="95"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4349,6 +4674,39 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -4361,39 +4719,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{DE3E94E9-FAE8-4909-A414-D26B4B78CE3D}">
@@ -4402,7 +4727,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4429,10 +4754,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4781,8 +5106,827 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9318B018-6E57-4B02-B4B5-E6A9764164B8}">
+  <sheetPr codeName="Feuil14">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="101"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="101"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="101"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="101"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="101"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="101"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="101"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="101"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="101"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="106"/>
+      <c r="B21" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="106"/>
+      <c r="B23" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="106"/>
+      <c r="B24" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="106"/>
+      <c r="B25" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="106"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="106"/>
+      <c r="B26" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="106"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="107"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="106"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="113"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="120"/>
+      <c r="B32" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="121"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="120"/>
+      <c r="B34" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="120"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="120"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="120"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="120"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="120"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="120"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="120"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="120"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="120"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="120"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="120"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="120"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="120"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="120"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="120"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="120"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="120"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="120"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="120"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="120"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="120"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="120"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="120"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="120"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="120"/>
+      <c r="B59" s="124"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="120"/>
+      <c r="B60" s="124"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="120"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="120"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="120"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="120"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="120"/>
+      <c r="B65" s="124"/>
+      <c r="C65" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="120"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="135">
+        <v>0.8</v>
+      </c>
+      <c r="D66" s="136">
+        <v>385</v>
+      </c>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="120"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="136"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="120"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="120"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="106"/>
+      <c r="B69" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="139"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="140">
+        <v>308</v>
+      </c>
+      <c r="F69" s="140"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="106"/>
+      <c r="B70" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="60"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="142">
+        <v>0</v>
+      </c>
+      <c r="F70" s="142"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="106"/>
+      <c r="B71" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="60"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="142">
+        <v>0</v>
+      </c>
+      <c r="F71" s="142"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="106"/>
+      <c r="B72" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="60"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="142">
+        <v>0</v>
+      </c>
+      <c r="F72" s="142"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="106"/>
+      <c r="B73" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="139"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="144">
+        <v>308</v>
+      </c>
+      <c r="F73" s="144"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="106"/>
+      <c r="B74" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="145">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="60"/>
+      <c r="E74" s="146">
+        <v>15.4</v>
+      </c>
+      <c r="F74" s="146"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="106"/>
+      <c r="B75" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="148">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="60"/>
+      <c r="E75" s="149">
+        <v>30.72</v>
+      </c>
+      <c r="F75" s="146"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="106"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="106"/>
+      <c r="B77" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="139"/>
+      <c r="D77" s="151"/>
+      <c r="E77" s="152">
+        <v>354.12</v>
+      </c>
+      <c r="F77" s="153"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="106"/>
+      <c r="B78" s="147"/>
+      <c r="C78" s="147"/>
+      <c r="D78" s="147"/>
+      <c r="E78" s="154"/>
+      <c r="F78" s="147"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="106"/>
+      <c r="B79" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="147"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="109">
+        <v>0</v>
+      </c>
+      <c r="F79" s="109"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="106"/>
+      <c r="B80" s="139"/>
+      <c r="C80" s="147"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="147"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="106"/>
+      <c r="B81" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="156"/>
+      <c r="D81" s="157"/>
+      <c r="E81" s="158">
+        <v>354.12</v>
+      </c>
+      <c r="F81" s="109"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="106"/>
+      <c r="B82" s="106"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="109"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="159"/>
+      <c r="B83" s="160"/>
+      <c r="C83" s="161"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="161"/>
+      <c r="F83" s="162"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="163" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="163"/>
+      <c r="C84" s="163"/>
+      <c r="D84" s="163"/>
+      <c r="E84" s="163"/>
+      <c r="F84" s="66"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="164"/>
+      <c r="C85" s="164"/>
+      <c r="D85" s="164"/>
+      <c r="E85" s="164"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="165"/>
+      <c r="B86" s="165"/>
+      <c r="C86" s="165"/>
+      <c r="D86" s="165"/>
+      <c r="E86" s="165"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="165"/>
+      <c r="B87" s="165"/>
+      <c r="C87" s="165"/>
+      <c r="D87" s="165"/>
+      <c r="E87" s="165"/>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="58" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4929,14 +6073,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -4957,259 +6101,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -5239,17 +6383,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -5356,19 +6500,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -5376,9 +6520,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -5413,31 +6557,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -5449,26 +6593,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5478,34 +6622,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -5522,6 +6638,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -5531,7 +6675,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5539,7 +6683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447F8DF5-C3FB-4B00-90B9-7324BA1BC07A}">
-  <sheetPr>
+  <sheetPr codeName="Feuil4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -5680,14 +6824,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -5708,259 +6852,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -5990,17 +7134,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -6107,19 +7251,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -6127,9 +7271,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -6164,31 +7308,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -6200,26 +7344,776 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{ACE169B1-BBB1-48BD-B8F1-6CB509BE70B4}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E0EF4-9594-4EF2-97B4-42BD2B94B4B2}">
+  <sheetPr codeName="Feuil5">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:D67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="50"/>
+      <c r="F65" s="47"/>
+    </row>
+    <row r="66" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="53">
+        <v>285</v>
+      </c>
+      <c r="E66" s="50"/>
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="22"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="30">
+        <f>D66*C66</f>
+        <v>142.5</v>
+      </c>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22"/>
+      <c r="B70" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="31">
+        <v>0</v>
+      </c>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22"/>
+      <c r="B71" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="31">
+        <v>0</v>
+      </c>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="30">
+        <f>SUM(E69:E71)</f>
+        <v>142.5</v>
+      </c>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="36">
+        <f>ROUND(E72*C73,2)</f>
+        <v>7.13</v>
+      </c>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="43">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="44">
+        <f>ROUND(E72*C74,2)</f>
+        <v>14.21</v>
+      </c>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="34">
+        <f>SUM(E72:E74)</f>
+        <v>163.84</v>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="22"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="22"/>
+      <c r="B78" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="22"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="22"/>
+      <c r="B80" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40">
+        <f>E76-E78</f>
+        <v>163.84</v>
+      </c>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="22"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="22"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="94"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6275,27 +8169,27 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{ACE169B1-BBB1-48BD-B8F1-6CB509BE70B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{0E21E306-7163-4626-B4AA-B34B619D3EEA}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E0EF4-9594-4EF2-97B4-42BD2B94B4B2}">
-  <sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EB6E5-3C1B-4141-A34A-9F3ADD73F767}">
+  <sheetPr codeName="Feuil6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:D67"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6348,7 +8242,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -6417,7 +8311,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -6430,14 +8324,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -6458,299 +8352,294 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="29"/>
+      <c r="B35" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="29">
+        <f>0.4*285</f>
+        <v>114</v>
+      </c>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="47"/>
       <c r="B65" s="48"/>
-      <c r="C65" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>56</v>
-      </c>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="50"/>
       <c r="F65" s="47"/>
     </row>
     <row r="66" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="47"/>
       <c r="B66" s="48"/>
-      <c r="C66" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="D66" s="53">
-        <v>285</v>
-      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="50"/>
       <c r="F66" s="47"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -6762,8 +8651,8 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="30">
-        <f>D66*C66</f>
-        <v>142.5</v>
+        <f>SUM(E35:E68)</f>
+        <v>114</v>
       </c>
       <c r="F69" s="22"/>
     </row>
@@ -6800,7 +8689,7 @@
       <c r="D72" s="27"/>
       <c r="E72" s="30">
         <f>SUM(E69:E71)</f>
-        <v>142.5</v>
+        <v>114</v>
       </c>
       <c r="F72" s="22"/>
     </row>
@@ -6815,7 +8704,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="36">
         <f>ROUND(E72*C73,2)</f>
-        <v>7.13</v>
+        <v>5.7</v>
       </c>
       <c r="F73" s="22"/>
     </row>
@@ -6830,7 +8719,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="44">
         <f>ROUND(E72*C74,2)</f>
-        <v>14.21</v>
+        <v>11.37</v>
       </c>
       <c r="F74" s="22"/>
     </row>
@@ -6851,25 +8740,25 @@
       <c r="D76" s="27"/>
       <c r="E76" s="34">
         <f>SUM(E72:E74)</f>
-        <v>163.84</v>
+        <v>131.07</v>
       </c>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -6877,9 +8766,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -6892,7 +8781,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="40">
         <f>E76-E78</f>
-        <v>163.84</v>
+        <v>131.07</v>
       </c>
       <c r="F80" s="22"/>
     </row>
@@ -6914,31 +8803,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -6950,26 +8839,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7025,27 +8914,27 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{0E21E306-7163-4626-B4AA-B34B619D3EEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{C4118FFF-2CBE-4BB1-ABC2-4A322665935D}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EB6E5-3C1B-4141-A34A-9F3ADD73F767}">
-  <sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E76A7-48A7-47F2-83F3-B43BAFD12170}">
+  <sheetPr codeName="Feuil7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7098,7 +8987,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -7167,7 +9056,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -7180,14 +9069,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -7208,262 +9097,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="29">
-        <f>0.4*285</f>
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -7485,17 +9373,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -7508,7 +9396,7 @@
       <c r="D69" s="27"/>
       <c r="E69" s="30">
         <f>SUM(E35:E68)</f>
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="F69" s="22"/>
     </row>
@@ -7545,7 +9433,7 @@
       <c r="D72" s="27"/>
       <c r="E72" s="30">
         <f>SUM(E69:E71)</f>
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="F72" s="22"/>
     </row>
@@ -7560,7 +9448,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="36">
         <f>ROUND(E72*C73,2)</f>
-        <v>5.7</v>
+        <v>14.25</v>
       </c>
       <c r="F73" s="22"/>
     </row>
@@ -7575,7 +9463,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="44">
         <f>ROUND(E72*C74,2)</f>
-        <v>11.37</v>
+        <v>28.43</v>
       </c>
       <c r="F74" s="22"/>
     </row>
@@ -7596,25 +9484,25 @@
       <c r="D76" s="27"/>
       <c r="E76" s="34">
         <f>SUM(E72:E74)</f>
-        <v>131.07</v>
+        <v>327.68</v>
       </c>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -7622,9 +9510,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -7637,7 +9525,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="40">
         <f>E76-E78</f>
-        <v>131.07</v>
+        <v>327.68</v>
       </c>
       <c r="F80" s="22"/>
     </row>
@@ -7659,31 +9547,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -7695,26 +9583,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7770,21 +9658,21 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{C4118FFF-2CBE-4BB1-ABC2-4A322665935D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{8B51588C-F259-4C6D-89CF-E276CA24455D}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E76A7-48A7-47F2-83F3-B43BAFD12170}">
-  <sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE3B620-AFFD-4BD6-B499-074A85198AD4}">
+  <sheetPr codeName="Feuil8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -7843,7 +9731,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -7912,7 +9800,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -7925,14 +9813,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -7953,261 +9841,262 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="29">
-        <v>285</v>
+        <f>0.25*295</f>
+        <v>73.75</v>
       </c>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -8229,17 +10118,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -8252,7 +10141,7 @@
       <c r="D69" s="27"/>
       <c r="E69" s="30">
         <f>SUM(E35:E68)</f>
-        <v>285</v>
+        <v>73.75</v>
       </c>
       <c r="F69" s="22"/>
     </row>
@@ -8289,7 +10178,7 @@
       <c r="D72" s="27"/>
       <c r="E72" s="30">
         <f>SUM(E69:E71)</f>
-        <v>285</v>
+        <v>73.75</v>
       </c>
       <c r="F72" s="22"/>
     </row>
@@ -8304,7 +10193,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="36">
         <f>ROUND(E72*C73,2)</f>
-        <v>14.25</v>
+        <v>3.69</v>
       </c>
       <c r="F73" s="22"/>
     </row>
@@ -8319,7 +10208,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="44">
         <f>ROUND(E72*C74,2)</f>
-        <v>28.43</v>
+        <v>7.36</v>
       </c>
       <c r="F74" s="22"/>
     </row>
@@ -8340,25 +10229,25 @@
       <c r="D76" s="27"/>
       <c r="E76" s="34">
         <f>SUM(E72:E74)</f>
-        <v>327.68</v>
+        <v>84.8</v>
       </c>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -8366,9 +10255,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -8381,7 +10270,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="40">
         <f>E76-E78</f>
-        <v>327.68</v>
+        <v>84.8</v>
       </c>
       <c r="F80" s="22"/>
     </row>
@@ -8403,31 +10292,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -8439,26 +10328,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8514,26 +10403,26 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{8B51588C-F259-4C6D-89CF-E276CA24455D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{ECB175B5-A3C3-425B-B626-8D963F646D9D}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE3B620-AFFD-4BD6-B499-074A85198AD4}">
-  <sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B590F9D-FD1A-49FF-9C74-DD60E2DC0D60}">
+  <sheetPr codeName="Feuil9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
@@ -8587,7 +10476,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -8656,7 +10545,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -8669,14 +10558,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -8697,27 +10586,27 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="29">
         <f>0.25*295</f>
         <v>73.75</v>
@@ -8726,233 +10615,233 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -8974,17 +10863,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -9091,19 +10980,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -9111,9 +11000,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -9148,31 +11037,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -9184,26 +11073,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -9259,27 +11148,27 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{ECB175B5-A3C3-425B-B626-8D963F646D9D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{500CE26E-B6CB-44DB-BA2D-A36C655B8F2C}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B590F9D-FD1A-49FF-9C74-DD60E2DC0D60}">
-  <sheetPr>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D948DAC-FF29-4CAC-8F91-9B0C3AF66B7B}">
+  <sheetPr codeName="Feuil10">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:D36"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9332,7 +11221,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -9401,7 +11290,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -9414,14 +11303,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -9442,262 +11331,262 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="29">
-        <f>0.25*295</f>
-        <v>73.75</v>
+        <f>3.75*325</f>
+        <v>1218.75</v>
       </c>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -9719,17 +11608,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -9742,7 +11631,7 @@
       <c r="D69" s="27"/>
       <c r="E69" s="30">
         <f>SUM(E35:E68)</f>
-        <v>73.75</v>
+        <v>1218.75</v>
       </c>
       <c r="F69" s="22"/>
     </row>
@@ -9779,7 +11668,7 @@
       <c r="D72" s="27"/>
       <c r="E72" s="30">
         <f>SUM(E69:E71)</f>
-        <v>73.75</v>
+        <v>1218.75</v>
       </c>
       <c r="F72" s="22"/>
     </row>
@@ -9794,7 +11683,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="36">
         <f>ROUND(E72*C73,2)</f>
-        <v>3.69</v>
+        <v>60.94</v>
       </c>
       <c r="F73" s="22"/>
     </row>
@@ -9809,7 +11698,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="44">
         <f>ROUND(E72*C74,2)</f>
-        <v>7.36</v>
+        <v>121.57</v>
       </c>
       <c r="F74" s="22"/>
     </row>
@@ -9830,25 +11719,25 @@
       <c r="D76" s="27"/>
       <c r="E76" s="34">
         <f>SUM(E72:E74)</f>
-        <v>84.8</v>
+        <v>1401.26</v>
       </c>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -9856,9 +11745,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -9871,7 +11760,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="40">
         <f>E76-E78</f>
-        <v>84.8</v>
+        <v>1401.26</v>
       </c>
       <c r="F80" s="22"/>
     </row>
@@ -9893,31 +11782,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -9929,26 +11818,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10004,758 +11893,13 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{500CE26E-B6CB-44DB-BA2D-A36C655B8F2C}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D948DAC-FF29-4CAC-8F91-9B0C3AF66B7B}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:D39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="29">
-        <f>3.75*325</f>
-        <v>1218.75</v>
-      </c>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="47"/>
-    </row>
-    <row r="66" spans="1:6" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="47"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="B69" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="30">
-        <f>SUM(E35:E68)</f>
-        <v>1218.75</v>
-      </c>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
-      <c r="B70" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="31">
-        <v>0</v>
-      </c>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="B71" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="31">
-        <v>0</v>
-      </c>
-      <c r="F71" s="22"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="30">
-        <f>SUM(E69:E71)</f>
-        <v>1218.75</v>
-      </c>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="36">
-        <f>ROUND(E72*C73,2)</f>
-        <v>60.94</v>
-      </c>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="43">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="44">
-        <f>ROUND(E72*C74,2)</f>
-        <v>121.57</v>
-      </c>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="34">
-        <f>SUM(E72:E74)</f>
-        <v>1401.26</v>
-      </c>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="37">
-        <v>0</v>
-      </c>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="40">
-        <f>E76-E78</f>
-        <v>1401.26</v>
-      </c>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{F05209E5-F297-4E25-9E0E-A1B4FECB80C9}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Factures_Excel/1472 - Équipe Jacques Morin.xlsx
+++ b/Factures_Excel/1472 - Équipe Jacques Morin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\Factures_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90317E1D-4D2F-434B-ADE6-80BC1A926BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3A6560-CC54-45A6-B1DE-67AF4FA8466B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25-07-19" sheetId="16" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="21-03-23" sheetId="14" r:id="rId10"/>
     <sheet name="18-02-24" sheetId="15" r:id="rId11"/>
     <sheet name="Activités" sheetId="5" r:id="rId12"/>
-    <sheet name="2025-05-06 - 25-24928" sheetId="18" r:id="rId13"/>
+    <sheet name="2025-05-17 - 25-24932" sheetId="17" r:id="rId13"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId14"/>
@@ -50,7 +50,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'16-12-19'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'18-02-24'!$A$1:$F$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'18-06-21'!$A$1:$F$89</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-05-06 - 25-24928'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-05-17 - 25-24932'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'21-03-23'!$A$1:$F$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'21-07-21'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'25-07-19'!$A$1:$F$89</definedName>
@@ -358,7 +358,7 @@
     <t>Le 25 JUILLET 2019</t>
   </si>
   <si>
-    <t>Le 6 MAI 2025</t>
+    <t>Le 17 MAI 2025</t>
   </si>
   <si>
     <t>Jacques Morin</t>
@@ -373,10 +373,10 @@
     <t>Boisbriand, Québec, J7H 0A4</t>
   </si>
   <si>
-    <t>25-24928</t>
+    <t>25-24932</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Test</t>
+    <t xml:space="preserve"> - Recherche fiscale afférent au tracteur, conversation téléphonique et courriel ;</t>
   </si>
   <si>
     <t>Frais d'expert en taxes</t>
@@ -1221,7 +1221,7 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
-    <cellStyle name="Milliers 2" xfId="5" xr:uid="{3E3831AB-4A54-4CD3-B641-51C90D1FFEAC}"/>
+    <cellStyle name="Milliers 2" xfId="5" xr:uid="{B0583FCF-96FA-43DA-A05C-F60205978A59}"/>
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{05AE08AC-AFEC-4B9B-A8E8-E482E13645AE}"/>
@@ -1494,10 +1494,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13313" name="Picture 1">
+        <xdr:cNvPr id="12289" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEDD6B7-26F6-B569-B4C8-7AB7F98752B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12AE93D7-347D-5B09-4BA2-5EAA601FB1C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362BF929-B602-4F7E-AC64-AB3EEF005DD0}">
-  <sheetPr codeName="Feuil3">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -3214,7 +3214,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3222,7 +3222,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69AA414-A443-4EAB-B340-02D8FB620538}">
-  <sheetPr codeName="Feuil11">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F93"/>
@@ -3973,7 +3973,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3981,7 +3981,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BD3A54-5416-4050-BBF2-78F740333344}">
-  <sheetPr codeName="Feuil12">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F93"/>
@@ -4727,7 +4727,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5106,19 +5106,19 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9318B018-6E57-4B02-B4B5-E6A9764164B8}">
-  <sheetPr codeName="Feuil14">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD54CF57-273E-45B7-853C-EB56FDC01246}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -5680,7 +5680,7 @@
       <c r="A66" s="120"/>
       <c r="B66" s="124"/>
       <c r="C66" s="135">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D66" s="136">
         <v>385</v>
@@ -5712,7 +5712,7 @@
       <c r="C69" s="139"/>
       <c r="D69" s="108"/>
       <c r="E69" s="140">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="F69" s="140"/>
     </row>
@@ -5760,7 +5760,7 @@
       <c r="C73" s="139"/>
       <c r="D73" s="108"/>
       <c r="E73" s="144">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="F73" s="144"/>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="D74" s="60"/>
       <c r="E74" s="146">
-        <v>15.4</v>
+        <v>19.25</v>
       </c>
       <c r="F74" s="146"/>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D75" s="60"/>
       <c r="E75" s="149">
-        <v>30.72</v>
+        <v>38.4</v>
       </c>
       <c r="F75" s="146"/>
     </row>
@@ -5808,7 +5808,7 @@
       <c r="C77" s="139"/>
       <c r="D77" s="151"/>
       <c r="E77" s="152">
-        <v>354.12</v>
+        <v>442.65</v>
       </c>
       <c r="F77" s="153"/>
     </row>
@@ -5848,7 +5848,7 @@
       <c r="C81" s="156"/>
       <c r="D81" s="157"/>
       <c r="E81" s="158">
-        <v>354.12</v>
+        <v>442.65</v>
       </c>
       <c r="F81" s="109"/>
     </row>
@@ -5925,7 +5925,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="58" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6675,7 +6675,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6683,7 +6683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447F8DF5-C3FB-4B00-90B9-7324BA1BC07A}">
-  <sheetPr codeName="Feuil4">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -7425,7 +7425,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7433,7 +7433,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E0EF4-9594-4EF2-97B4-42BD2B94B4B2}">
-  <sheetPr codeName="Feuil5">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -8175,7 +8175,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8183,7 +8183,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EB6E5-3C1B-4141-A34A-9F3ADD73F767}">
-  <sheetPr codeName="Feuil6">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -8920,7 +8920,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8928,7 +8928,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E76A7-48A7-47F2-83F3-B43BAFD12170}">
-  <sheetPr codeName="Feuil7">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -9664,7 +9664,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9672,7 +9672,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE3B620-AFFD-4BD6-B499-074A85198AD4}">
-  <sheetPr codeName="Feuil8">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -10409,7 +10409,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10417,7 +10417,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B590F9D-FD1A-49FF-9C74-DD60E2DC0D60}">
-  <sheetPr codeName="Feuil9">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -11154,7 +11154,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11162,7 +11162,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D948DAC-FF29-4CAC-8F91-9B0C3AF66B7B}">
-  <sheetPr codeName="Feuil10">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -11899,7 +11899,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
